--- a/publicationslist.xlsx
+++ b/publicationslist.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lu\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="211">
   <si>
     <t>Statistica Sinica</t>
   </si>
@@ -31,9 +36,6 @@
     <t>Journal of Machine Learning Research</t>
   </si>
   <si>
-    <t>Annals of Statistics (to appear)</t>
-  </si>
-  <si>
     <t>Biometrika</t>
   </si>
   <si>
@@ -58,12 +60,6 @@
     <t>Clinical Journal of the American Society of Nephrology</t>
   </si>
   <si>
-    <t>Modern Pathology (to appear)</t>
-  </si>
-  <si>
-    <t>PLoS ONE (to appear)</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -2029,8 +2025,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Patel M.R., Song P.X.K., Sanders G., Nelson B.W., Kaltsas E., Thomas L.J., Janevic M.R., Hafeez K., Wang W., Wilkin M., Johnson T.R. and Brown R.W. </t>
+    <t>Scientific Reports</t>
+  </si>
+  <si>
+    <t>Genetic Epidemiology</t>
+  </si>
+  <si>
+    <t>Science of the Total Environment</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Patel, M.R., Song, P.X.K., Sanders, G., Nelson, B.W., Kaltsas, E., Thomas, L.J., Janevic, M.R., Hafeez, K., Wang, W., Wilkin, M., Johnson, T.R. and Brown, R.W. </t>
     </r>
     <r>
       <rPr>
@@ -2053,22 +2061,124 @@
     </r>
   </si>
   <si>
-    <t>Scientific Reports</t>
-  </si>
-  <si>
-    <t>Genetic Epidemiology</t>
-  </si>
-  <si>
-    <t>Science of the Total Environment</t>
-  </si>
-  <si>
-    <t>Annals of Asthma, Allergy, and Immunology (to appear)</t>
+    <r>
+      <t xml:space="preserve">Kalmbach, D.A., Arnedt, J.T., Song, P.X.K., Guille, C. and Sen, S. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sleep disturbance and short sleep as risk factors for depression and perceived medical errors in first-year residents.</t>
+    </r>
+  </si>
+  <si>
+    <t>Annals of Asthma, Allergy, and Immunology</t>
+  </si>
+  <si>
+    <t>Annals of Statistics</t>
+  </si>
+  <si>
+    <t>Modern Pathology</t>
+  </si>
+  <si>
+    <t>PLoS ONE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ashby, V., Leichtman, A., Rees, M., Song, P.X.K., Bray, M., Wang, W. and Kalbfleisch, J.  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A kidney graft survival calculator that accounts for mismatches in age, sex, HLA and body size.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zhang, S., Zhou, Q.M., Zhu,  D. and Song, P.X.K. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Goodness-of-fit test in multivariate jump diffusion models.</t>
+    </r>
+  </si>
+  <si>
+    <t>The Journal of Allergy and Clinical Immunology: In Practice</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Baptist, A.P., Hao, W., Karamched, K.R., Kaur, B., Carpenter, L. and Song, P.X.K. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Distinct asthma phenotypes among older adults with asthma.</t>
+    </r>
+  </si>
+  <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>Journal of Business &amp; Economic Statistics</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perng, W., Hector, E.C., Song, P.X.K., Tellez Rojo, M.M., Raskind, S., Kachman, M., Cantoral, A., Burant, C.F. and Peterson, K.E.  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Metabolomic Determinants of Metabolic Risk in Mexican Adolescents.</t>
+    </r>
+  </si>
+  <si>
+    <t>Annals of Allergy, Asthma &amp; Immunology (to appear)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bennett, G.H., Carpenter, L., Hao, W., Song, P.X.K., Steinberg, J. and Baptist, A.P. (2017).  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Risk factors and clinical outcomes associated with fixed airflow obstruction in older adults with asthma.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2688,6 +2798,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2735,7 +2848,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2768,9 +2881,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2803,6 +2933,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2978,26 +3125,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="5.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>3</v>
@@ -3009,2139 +3156,2247 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D2" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D3" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D4" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="D6" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="D7" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="D8" s="5">
         <v>2016</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="D9" s="5">
         <v>2016</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="D10" s="5">
         <v>2016</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="D11" s="5">
         <v>2016</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5">
         <v>2016</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5">
         <v>2016</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="D14" s="5">
         <v>2016</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D15" s="5">
         <v>2016</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="5">
         <v>2016</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D17" s="5">
         <v>2016</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D18" s="5">
         <v>2016</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D19" s="5">
         <v>2016</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" s="5">
         <v>2016</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D21" s="5">
         <v>2016</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D22" s="5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="91.2" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D23" s="5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="150.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D24" s="5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="76.2" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="D25" s="5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="61.8" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="D26" s="5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D27" s="5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D28" s="5">
         <v>2015</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D29" s="5">
         <v>2015</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D30" s="5">
         <v>2015</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D31" s="5">
         <v>2015</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="61.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D32" s="5">
         <v>2015</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D33" s="5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D34" s="5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D35" s="5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="106.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D36" s="5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="121.2" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D37" s="5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="136.80000000000001" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D38" s="5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D39" s="5">
         <v>2014</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D40" s="5">
         <v>2014</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D41" s="5">
         <v>2014</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D42" s="5">
         <v>2014</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D43" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D44" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D45" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="121.8" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D46" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D47" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D48" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D49" s="5">
         <v>2013</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D50" s="5">
         <v>2013</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D51" s="5">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D52" s="5">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D53" s="5">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D54" s="5">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D55" s="5">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D56" s="5">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D57" s="5">
         <v>2012</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D58" s="5">
         <v>2012</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D59" s="5">
         <v>2012</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D60" s="5">
         <v>2012</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D61" s="5">
         <v>2012</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D62" s="5">
         <v>2012</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D63" s="5">
         <v>2012</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D64" s="5">
         <v>2012</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D65" s="5">
         <v>2012</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="136.80000000000001" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D66" s="5">
         <v>2012</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D67" s="5">
         <v>2012</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="61.8" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D68" s="5">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="61.8" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D69" s="5">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D70" s="5">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D71" s="5">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D72" s="5">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D73" s="5">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D74" s="5">
         <v>2011</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D75" s="5">
         <v>2011</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="D76" s="5">
         <v>2011</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D77" s="5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D78" s="5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D79" s="5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D80" s="5">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="D81" s="5">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D82" s="5">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D83" s="5">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D84" s="5">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D85" s="5">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D86" s="5">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="D87" s="5">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D88" s="5">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D89" s="5">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D90" s="5">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D91" s="5">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D92" s="5">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D93" s="5">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D94" s="5">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D95" s="5">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D96" s="5">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D97" s="5">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D98" s="5">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D99" s="5">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D100" s="5">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D101" s="5">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D102" s="5">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D103" s="5">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D104" s="5">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D105" s="5">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D106" s="5">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D107" s="5">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D108" s="5">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D109" s="5">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D110" s="5">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D111" s="5">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D112" s="5">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D113" s="5">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D114" s="5">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D115" s="5">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D116" s="5">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D117" s="5">
-        <v>1993</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>1999</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D118" s="5">
-        <v>1992</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>1998</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D119" s="5">
+        <v>1997</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1996</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1996</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D122" s="5">
+        <v>1993</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D123" s="5">
+        <v>1993</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D124" s="5">
+        <v>1992</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D125" s="5">
         <v>1988</v>
       </c>
-      <c r="E119" s="5" t="s">
-        <v>18</v>
+      <c r="E125" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E74">
-    <sortCondition ref="A2:A74"/>
+  <sortState ref="A3:E75">
+    <sortCondition ref="A3:A75"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1"/>
-    <hyperlink ref="E10" r:id="rId2"/>
-    <hyperlink ref="E11" r:id="rId3"/>
-    <hyperlink ref="E12" r:id="rId4"/>
-    <hyperlink ref="E13" r:id="rId5"/>
-    <hyperlink ref="E14" r:id="rId6"/>
-    <hyperlink ref="E15" r:id="rId7"/>
-    <hyperlink ref="E16" r:id="rId8"/>
-    <hyperlink ref="E17" r:id="rId9"/>
-    <hyperlink ref="E18" r:id="rId10"/>
-    <hyperlink ref="E19" r:id="rId11"/>
-    <hyperlink ref="E20" r:id="rId12"/>
-    <hyperlink ref="E22" r:id="rId13"/>
-    <hyperlink ref="E23" r:id="rId14"/>
-    <hyperlink ref="E24" r:id="rId15"/>
-    <hyperlink ref="E26" r:id="rId16"/>
-    <hyperlink ref="E27" r:id="rId17"/>
-    <hyperlink ref="E28" r:id="rId18"/>
-    <hyperlink ref="E29" r:id="rId19"/>
-    <hyperlink ref="E30" r:id="rId20"/>
-    <hyperlink ref="E31" r:id="rId21"/>
-    <hyperlink ref="E32" r:id="rId22"/>
-    <hyperlink ref="E33" r:id="rId23"/>
-    <hyperlink ref="E34" r:id="rId24"/>
-    <hyperlink ref="E35" r:id="rId25"/>
-    <hyperlink ref="E36" r:id="rId26"/>
-    <hyperlink ref="E37" r:id="rId27"/>
-    <hyperlink ref="E38" r:id="rId28"/>
-    <hyperlink ref="E39" r:id="rId29"/>
-    <hyperlink ref="E40" r:id="rId30"/>
-    <hyperlink ref="E41" r:id="rId31"/>
-    <hyperlink ref="E43" r:id="rId32" location=".V8SGqPkrLcs"/>
-    <hyperlink ref="E44" r:id="rId33"/>
-    <hyperlink ref="E45" r:id="rId34"/>
-    <hyperlink ref="E46" r:id="rId35"/>
-    <hyperlink ref="E48" r:id="rId36"/>
-    <hyperlink ref="E49" r:id="rId37"/>
-    <hyperlink ref="E50" r:id="rId38"/>
-    <hyperlink ref="E51" r:id="rId39"/>
-    <hyperlink ref="E52" r:id="rId40"/>
-    <hyperlink ref="E53" r:id="rId41"/>
-    <hyperlink ref="E54" r:id="rId42"/>
-    <hyperlink ref="E55" r:id="rId43"/>
-    <hyperlink ref="E56" r:id="rId44"/>
-    <hyperlink ref="E57" r:id="rId45"/>
-    <hyperlink ref="E58" r:id="rId46"/>
-    <hyperlink ref="E59" r:id="rId47"/>
-    <hyperlink ref="E60" r:id="rId48"/>
-    <hyperlink ref="E61" r:id="rId49"/>
-    <hyperlink ref="E62" r:id="rId50"/>
-    <hyperlink ref="E63" r:id="rId51"/>
-    <hyperlink ref="E64" r:id="rId52"/>
-    <hyperlink ref="E65" r:id="rId53"/>
-    <hyperlink ref="E66" r:id="rId54"/>
-    <hyperlink ref="E67" r:id="rId55"/>
-    <hyperlink ref="E68" r:id="rId56"/>
-    <hyperlink ref="E69" r:id="rId57"/>
-    <hyperlink ref="E70" r:id="rId58"/>
-    <hyperlink ref="E71" r:id="rId59"/>
-    <hyperlink ref="E72" r:id="rId60"/>
-    <hyperlink ref="E73" r:id="rId61"/>
-    <hyperlink ref="E74" r:id="rId62" location="page_scan_tab_contents"/>
-    <hyperlink ref="E75" r:id="rId63"/>
-    <hyperlink ref="E76" r:id="rId64"/>
-    <hyperlink ref="E77" r:id="rId65"/>
-    <hyperlink ref="E78" r:id="rId66"/>
-    <hyperlink ref="E79" r:id="rId67"/>
-    <hyperlink ref="E47" r:id="rId68"/>
-    <hyperlink ref="E42" r:id="rId69"/>
-    <hyperlink ref="E80" r:id="rId70"/>
-    <hyperlink ref="E81" r:id="rId71"/>
-    <hyperlink ref="E82" r:id="rId72"/>
-    <hyperlink ref="E83" r:id="rId73"/>
-    <hyperlink ref="E84" r:id="rId74"/>
-    <hyperlink ref="E85" r:id="rId75"/>
-    <hyperlink ref="E86" r:id="rId76"/>
-    <hyperlink ref="E87" r:id="rId77"/>
-    <hyperlink ref="E88" r:id="rId78"/>
-    <hyperlink ref="E89" r:id="rId79"/>
-    <hyperlink ref="E90" r:id="rId80"/>
-    <hyperlink ref="E91" r:id="rId81"/>
-    <hyperlink ref="E92" r:id="rId82"/>
-    <hyperlink ref="E93" r:id="rId83"/>
-    <hyperlink ref="E94" r:id="rId84"/>
-    <hyperlink ref="E95" r:id="rId85"/>
-    <hyperlink ref="E96" r:id="rId86"/>
-    <hyperlink ref="E97" r:id="rId87"/>
-    <hyperlink ref="E98" r:id="rId88"/>
-    <hyperlink ref="E99" r:id="rId89"/>
-    <hyperlink ref="E100" r:id="rId90"/>
-    <hyperlink ref="E101" r:id="rId91" location="page_scan_tab_contents"/>
-    <hyperlink ref="E102" r:id="rId92"/>
-    <hyperlink ref="E104" r:id="rId93"/>
-    <hyperlink ref="E105" r:id="rId94"/>
-    <hyperlink ref="E106" r:id="rId95"/>
-    <hyperlink ref="E107" r:id="rId96"/>
-    <hyperlink ref="E108" r:id="rId97"/>
-    <hyperlink ref="E109" r:id="rId98"/>
-    <hyperlink ref="E110" r:id="rId99"/>
-    <hyperlink ref="E111" r:id="rId100"/>
-    <hyperlink ref="E112" r:id="rId101" location="page_scan_tab_contents"/>
-    <hyperlink ref="E113" r:id="rId102"/>
-    <hyperlink ref="E114" r:id="rId103"/>
-    <hyperlink ref="E115" r:id="rId104"/>
-    <hyperlink ref="E116" r:id="rId105"/>
-    <hyperlink ref="E103" r:id="rId106"/>
-    <hyperlink ref="E6" r:id="rId107"/>
-    <hyperlink ref="E7" r:id="rId108"/>
-    <hyperlink ref="E25" r:id="rId109"/>
-    <hyperlink ref="E21" r:id="rId110"/>
-    <hyperlink ref="E8" r:id="rId111"/>
-    <hyperlink ref="E5" r:id="rId112"/>
-    <hyperlink ref="E4" r:id="rId113"/>
-    <hyperlink ref="E3" r:id="rId114"/>
+    <hyperlink ref="E15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E19" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E22" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E23" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E25" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E26" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E29" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E32" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E33" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E34" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E35" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E36" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E37" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E38" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E39" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E40" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E41" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E42" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E43" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E44" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E45" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E46" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E47" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E49" r:id="rId32" location=".V8SGqPkrLcs" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E50" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E51" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E52" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E54" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E55" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E56" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E57" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E58" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E59" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E60" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E61" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E62" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E63" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E64" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E65" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E66" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E70" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E71" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E72" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E73" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E74" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E75" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E76" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E77" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E78" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E79" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E80" r:id="rId62" location="page_scan_tab_contents" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E81" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E82" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E83" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E84" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E85" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E53" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E48" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E86" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E87" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E88" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E89" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E90" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E91" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E92" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E93" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E94" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E95" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E96" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E97" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E98" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E99" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E100" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E101" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E102" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E103" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E104" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E105" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E106" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E107" r:id="rId91" location="page_scan_tab_contents" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E108" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E110" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E111" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E112" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E113" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E114" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E115" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E116" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E117" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E118" r:id="rId101" location="page_scan_tab_contents" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E119" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E120" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E121" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E122" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E109" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E12" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E13" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E31" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E27" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E14" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E11" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E10" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E9" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E8" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E7" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E5" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E6" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E4" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E3" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId115"/>
+  <pageSetup orientation="portrait" r:id="rId121"/>
   <webPublishItems count="1">
-    <webPublishItem id="12644" divId="publicationslist_12644" sourceType="sheet" destinationFile="C:\Users\lutang\Desktop\publicationslist.htm"/>
+    <webPublishItem id="12644" divId="publicationslist_12644" sourceType="sheet" destinationFile="C:\Users\Lu\Desktop\publicationslist.htm"/>
   </webPublishItems>
 </worksheet>
 </file>